--- a/Gufi/Modelagens/Modelagem_Fisica.xlsx
+++ b/Gufi/Modelagens/Modelagem_Fisica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Exercicios\Gufi\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5C6E4A-066B-4224-A0AC-F75189515615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66098572-9154-4760-A1EB-C1EBF313A2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CB29D9E7-DC70-4827-BB89-E885D432D218}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{CB29D9E7-DC70-4827-BB89-E885D432D218}"/>
   </bookViews>
   <sheets>
     <sheet name="Instituição" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Instituição</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>dataEvento</t>
-  </si>
-  <si>
-    <t>idUsuario</t>
   </si>
   <si>
     <t>Aprovada</t>
@@ -402,7 +399,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -425,11 +421,12 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -776,12 +773,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -805,10 +802,10 @@
         <v>99999999999</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,10 +834,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="28"/>
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -889,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B38392-DB11-4791-A878-0F4F07861793}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -900,10 +897,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -951,10 +948,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -969,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1001,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,14 +1013,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1056,13 +1053,13 @@
         <v>15</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,16 +1070,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1093,16 +1090,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1131,7 +1128,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1136,7 @@
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
     <col min="7" max="7" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1155,25 +1152,25 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1193,8 +1190,8 @@
       <c r="E3" s="20">
         <v>1</v>
       </c>
-      <c r="F3" s="21">
-        <v>44426</v>
+      <c r="F3" s="33">
+        <v>44426.458333333336</v>
       </c>
       <c r="G3" s="20" t="s">
         <v>33</v>
@@ -1216,17 +1213,14 @@
       <c r="E4" s="20">
         <v>0</v>
       </c>
-      <c r="F4" s="21">
-        <v>44427</v>
+      <c r="F4" s="33">
+        <v>44427.5</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1235,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B85992-D176-4FFB-A625-715E344ECCC8}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,52 +1240,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>2</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22">
         <v>1</v>
       </c>
     </row>
